--- a/LITERATURE REVIEW/Related_Works_2022_Survey.xlsx
+++ b/LITERATURE REVIEW/Related_Works_2022_Survey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/a_w_mwangi_uu_nl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mwang002\OneDrive - Universiteit Utrecht\Documents\GitHub\Renewable_Energy_Integration\LITERATURE REVIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="8_{FC99C758-453C-48EB-B43E-C97B79A3F695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E40FCD68-A5B6-42DB-9C16-B3A9F0023510}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B89142-E1CB-4F0F-87A7-DBE45E64D00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="768" windowWidth="11520" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{08DCAB53-6236-4D3C-8AD8-9320C05A1CA3}"/>
   </bookViews>
@@ -409,8 +409,10 @@
     <t>There is little or no evidence that IoT will give a great boost to the semiconductor industry in the near future due to the limitations in the global economy and energy consumption</t>
   </si>
   <si>
-    <t>IoT will be the key driver of growth for many industries in the future. 
-Symbiotic system</t>
+    <t xml:space="preserve">IoT will be the key driver of growth for many industries in the future. 
+Symbiotic System
+Symbiotic relationship
+</t>
   </si>
 </sst>
 </file>
